--- a/project/content/car_plate_annotations.xlsx
+++ b/project/content/car_plate_annotations.xlsx
@@ -2886,8 +2886,14 @@
       <c r="H66" t="n">
         <v>169</v>
       </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>KLG1CA2555</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4128,8 +4134,14 @@
       <c r="H99" t="n">
         <v>185</v>
       </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>EVO9FTW</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4160,8 +4172,14 @@
       <c r="H100" t="n">
         <v>193</v>
       </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>GOOD</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5332,8 +5350,14 @@
       <c r="H131" t="n">
         <v>187</v>
       </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>N BYOND</t>
+        </is>
+      </c>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -6162,8 +6186,14 @@
       <c r="H153" t="n">
         <v>275</v>
       </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6194,8 +6224,14 @@
       <c r="H154" t="n">
         <v>215</v>
       </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>JA62 UAR</t>
+        </is>
+      </c>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -6226,8 +6262,14 @@
       <c r="H155" t="n">
         <v>213</v>
       </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>TN 19 S 4523</t>
+        </is>
+      </c>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -6258,8 +6300,14 @@
       <c r="H156" t="n">
         <v>211</v>
       </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -6290,8 +6338,14 @@
       <c r="H157" t="n">
         <v>143</v>
       </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -6322,8 +6376,14 @@
       <c r="H158" t="n">
         <v>177</v>
       </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -6354,8 +6414,14 @@
       <c r="H159" t="n">
         <v>211</v>
       </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>9214</t>
+        </is>
+      </c>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -6386,8 +6452,14 @@
       <c r="H160" t="n">
         <v>202</v>
       </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>LR33 TEE</t>
+        </is>
+      </c>
+      <c r="J160" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -6418,8 +6490,14 @@
       <c r="H161" t="n">
         <v>180</v>
       </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>GB18 TCE</t>
+        </is>
+      </c>
+      <c r="J161" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -6450,8 +6528,14 @@
       <c r="H162" t="n">
         <v>201</v>
       </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -6482,8 +6566,14 @@
       <c r="H163" t="n">
         <v>78</v>
       </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>UP 16 T C1366</t>
+        </is>
+      </c>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -6514,8 +6604,14 @@
       <c r="H164" t="n">
         <v>171</v>
       </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>IM4U 555</t>
+        </is>
+      </c>
+      <c r="J164" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -6546,8 +6642,14 @@
       <c r="H165" t="n">
         <v>167</v>
       </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>GJ03JL0126</t>
+        </is>
+      </c>
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -6578,8 +6680,14 @@
       <c r="H166" t="n">
         <v>119</v>
       </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -6610,8 +6718,14 @@
       <c r="H167" t="n">
         <v>169</v>
       </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -6642,8 +6756,14 @@
       <c r="H168" t="n">
         <v>273</v>
       </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>A D00008</t>
+        </is>
+      </c>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -6674,8 +6794,14 @@
       <c r="H169" t="n">
         <v>284</v>
       </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>15-LK-10898</t>
+        </is>
+      </c>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -6706,8 +6832,14 @@
       <c r="H170" t="n">
         <v>221</v>
       </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>HR 26 BC 5514</t>
+        </is>
+      </c>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -6738,8 +6870,14 @@
       <c r="H171" t="n">
         <v>132</v>
       </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>1 CD AF</t>
+        </is>
+      </c>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -6770,8 +6908,14 @@
       <c r="H172" t="n">
         <v>199</v>
       </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>3SAM123</t>
+        </is>
+      </c>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -6802,8 +6946,14 @@
       <c r="H173" t="n">
         <v>199</v>
       </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -6834,8 +6984,14 @@
       <c r="H174" t="n">
         <v>235</v>
       </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>KA.03.MG . 2784</t>
+        </is>
+      </c>
+      <c r="J174" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -6866,8 +7022,14 @@
       <c r="H175" t="n">
         <v>155</v>
       </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>21-801-27</t>
+        </is>
+      </c>
+      <c r="J175" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -6898,8 +7060,14 @@
       <c r="H176" t="n">
         <v>138</v>
       </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>HR 26.BR.9044</t>
+        </is>
+      </c>
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -6930,8 +7098,14 @@
       <c r="H177" t="n">
         <v>193</v>
       </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>TS009 TC 268</t>
+        </is>
+      </c>
+      <c r="J177" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -6962,8 +7136,14 @@
       <c r="H178" t="n">
         <v>149</v>
       </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -6994,8 +7174,14 @@
       <c r="H179" t="n">
         <v>191</v>
       </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>MH12DE1433</t>
+        </is>
+      </c>
+      <c r="J179" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -7026,8 +7212,14 @@
       <c r="H180" t="n">
         <v>99</v>
       </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -7154,8 +7346,14 @@
       <c r="H184" t="n">
         <v>159</v>
       </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -7186,8 +7384,14 @@
       <c r="H185" t="n">
         <v>160</v>
       </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>PG MN112</t>
+        </is>
+      </c>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -7218,8 +7422,14 @@
       <c r="H186" t="n">
         <v>153</v>
       </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>H982FKL</t>
+        </is>
+      </c>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -7250,8 +7460,14 @@
       <c r="H187" t="n">
         <v>274</v>
       </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>DAN54P</t>
+        </is>
+      </c>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -7282,8 +7498,14 @@
       <c r="H188" t="n">
         <v>137</v>
       </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -7314,8 +7536,14 @@
       <c r="H189" t="n">
         <v>207</v>
       </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>GOT2P00</t>
+        </is>
+      </c>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -7346,8 +7574,14 @@
       <c r="H190" t="n">
         <v>188</v>
       </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>MH20EJ0364</t>
+        </is>
+      </c>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -7378,8 +7612,14 @@
       <c r="H191" t="n">
         <v>212</v>
       </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>YD63LB</t>
+        </is>
+      </c>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -7410,8 +7650,14 @@
       <c r="H192" t="n">
         <v>166</v>
       </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>OK LA</t>
+        </is>
+      </c>
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -7442,8 +7688,14 @@
       <c r="H193" t="n">
         <v>232</v>
       </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>KA 01 AC 5957</t>
+        </is>
+      </c>
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -7474,8 +7726,14 @@
       <c r="H194" t="n">
         <v>205</v>
       </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>MH 20 EE 7598</t>
+        </is>
+      </c>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -7506,8 +7764,14 @@
       <c r="H195" t="n">
         <v>213</v>
       </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -7538,8 +7802,14 @@
       <c r="H196" t="n">
         <v>129</v>
       </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>IH4U 5333</t>
+        </is>
+      </c>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -7570,8 +7840,14 @@
       <c r="H197" t="n">
         <v>154</v>
       </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>NDTS08ER1643</t>
+        </is>
+      </c>
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -7602,8 +7878,14 @@
       <c r="H198" t="n">
         <v>205</v>
       </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -7634,8 +7916,14 @@
       <c r="H199" t="n">
         <v>290</v>
       </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>MH 02 CB 4545</t>
+        </is>
+      </c>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -7666,8 +7954,14 @@
       <c r="H200" t="n">
         <v>337</v>
       </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>FAMU 2010</t>
+        </is>
+      </c>
+      <c r="J200" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -7698,8 +7992,14 @@
       <c r="H201" t="n">
         <v>212</v>
       </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>M . 771276</t>
+        </is>
+      </c>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -7730,8 +8030,14 @@
       <c r="H202" t="n">
         <v>76</v>
       </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -7922,8 +8228,14 @@
       <c r="H208" t="n">
         <v>138</v>
       </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -7954,8 +8266,14 @@
       <c r="H209" t="n">
         <v>168</v>
       </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -7986,8 +8304,14 @@
       <c r="H210" t="n">
         <v>217</v>
       </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -8018,8 +8342,14 @@
       <c r="H211" t="n">
         <v>159</v>
       </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>DZ17 YXR</t>
+        </is>
+      </c>
+      <c r="J211" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -8050,8 +8380,14 @@
       <c r="H212" t="n">
         <v>195</v>
       </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>1P018299</t>
+        </is>
+      </c>
+      <c r="J212" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -8082,8 +8418,14 @@
       <c r="H213" t="n">
         <v>160</v>
       </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>YES BOSS</t>
+        </is>
+      </c>
+      <c r="J213" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -8114,8 +8456,14 @@
       <c r="H214" t="n">
         <v>121</v>
       </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>RX6I GDU</t>
+        </is>
+      </c>
+      <c r="J214" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -8146,8 +8494,14 @@
       <c r="H215" t="n">
         <v>173</v>
       </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>BRIT 0001</t>
+        </is>
+      </c>
+      <c r="J215" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -8178,8 +8532,14 @@
       <c r="H216" t="n">
         <v>169</v>
       </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>MANISA</t>
+        </is>
+      </c>
+      <c r="J216" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -8210,8 +8570,14 @@
       <c r="H217" t="n">
         <v>167</v>
       </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>BATMAN</t>
+        </is>
+      </c>
+      <c r="J217" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -8242,8 +8608,14 @@
       <c r="H218" t="n">
         <v>156</v>
       </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>CZ17 KOD</t>
+        </is>
+      </c>
+      <c r="J218" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -8274,8 +8646,14 @@
       <c r="H219" t="n">
         <v>225</v>
       </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -8402,8 +8780,14 @@
       <c r="H223" t="n">
         <v>163</v>
       </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -8434,8 +8818,14 @@
       <c r="H224" t="n">
         <v>243</v>
       </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>MMN 306</t>
+        </is>
+      </c>
+      <c r="J224" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -8466,8 +8856,14 @@
       <c r="H225" t="n">
         <v>384</v>
       </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>AP 1-1 AM 0-91</t>
+        </is>
+      </c>
+      <c r="J225" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -8498,8 +8894,14 @@
       <c r="H226" t="n">
         <v>195</v>
       </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -8530,8 +8932,14 @@
       <c r="H227" t="n">
         <v>183</v>
       </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>MH 01 DB 0001</t>
+        </is>
+      </c>
+      <c r="J227" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -8562,8 +8970,14 @@
       <c r="H228" t="n">
         <v>203</v>
       </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>68.611.36</t>
+        </is>
+      </c>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -8594,8 +9008,14 @@
       <c r="H229" t="n">
         <v>201</v>
       </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -8658,8 +9078,14 @@
       <c r="H231" t="n">
         <v>271</v>
       </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -8690,8 +9116,14 @@
       <c r="H232" t="n">
         <v>134</v>
       </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>HR 26.BR.9044</t>
+        </is>
+      </c>
+      <c r="J232" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -8722,8 +9154,14 @@
       <c r="H233" t="n">
         <v>230</v>
       </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>MIDLYPH</t>
+        </is>
+      </c>
+      <c r="J233" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -8754,8 +9192,14 @@
       <c r="H234" t="n">
         <v>213</v>
       </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>DL 7C N 5617</t>
+        </is>
+      </c>
+      <c r="J234" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -8786,8 +9230,14 @@
       <c r="H235" t="n">
         <v>169</v>
       </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>BATMAN</t>
+        </is>
+      </c>
+      <c r="J235" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -8818,8 +9268,14 @@
       <c r="H236" t="n">
         <v>173</v>
       </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>S32H</t>
+        </is>
+      </c>
+      <c r="J236" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -8850,8 +9306,14 @@
       <c r="H237" t="n">
         <v>208</v>
       </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>9214</t>
+        </is>
+      </c>
+      <c r="J237" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -8882,8 +9344,14 @@
       <c r="H238" t="n">
         <v>118</v>
       </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>S 0V8199</t>
+        </is>
+      </c>
+      <c r="J238" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -8914,8 +9382,14 @@
       <c r="H239" t="n">
         <v>246</v>
       </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>KA-02 A-6579</t>
+        </is>
+      </c>
+      <c r="J239" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -8946,8 +9420,14 @@
       <c r="H240" t="n">
         <v>208</v>
       </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -8978,8 +9458,14 @@
       <c r="H241" t="n">
         <v>181</v>
       </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>GBI8 TCE</t>
+        </is>
+      </c>
+      <c r="J241" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -9010,8 +9496,14 @@
       <c r="H242" t="n">
         <v>135</v>
       </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>01 CC 1A 0001</t>
+        </is>
+      </c>
+      <c r="J242" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -9042,8 +9534,14 @@
       <c r="H243" t="n">
         <v>182</v>
       </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -9106,8 +9604,14 @@
       <c r="H245" t="n">
         <v>196</v>
       </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="J245" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -9138,8 +9642,14 @@
       <c r="H246" t="n">
         <v>170</v>
       </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>IM4U 555</t>
+        </is>
+      </c>
+      <c r="J246" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -9170,8 +9680,14 @@
       <c r="H247" t="n">
         <v>184</v>
       </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>LAMBO</t>
+        </is>
+      </c>
+      <c r="J247" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -9202,8 +9718,14 @@
       <c r="H248" t="n">
         <v>176</v>
       </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>SDN7484U</t>
+        </is>
+      </c>
+      <c r="J248" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -9234,8 +9756,14 @@
       <c r="H249" t="n">
         <v>157</v>
       </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>DZI7 YXR</t>
+        </is>
+      </c>
+      <c r="J249" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -9266,8 +9794,14 @@
       <c r="H250" t="n">
         <v>182</v>
       </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>JPK 6546</t>
+        </is>
+      </c>
+      <c r="J250" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -9298,8 +9832,14 @@
       <c r="H251" t="n">
         <v>215</v>
       </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -9330,8 +9870,14 @@
       <c r="H252" t="n">
         <v>135</v>
       </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>G526 JHD</t>
+        </is>
+      </c>
+      <c r="J252" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -9362,8 +9908,14 @@
       <c r="H253" t="n">
         <v>149</v>
       </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>KL 01 CC 50</t>
+        </is>
+      </c>
+      <c r="J253" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -9394,8 +9946,14 @@
       <c r="H254" t="n">
         <v>237</v>
       </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>KL.54.A.2670</t>
+        </is>
+      </c>
+      <c r="J254" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -9426,8 +9984,14 @@
       <c r="H255" t="n">
         <v>156</v>
       </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>HNYCHIL3</t>
+        </is>
+      </c>
+      <c r="J255" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -9458,8 +10022,14 @@
       <c r="H256" t="n">
         <v>183</v>
       </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>SGQ51_Ju</t>
+        </is>
+      </c>
+      <c r="J256" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -9490,8 +10060,14 @@
       <c r="H257" t="n">
         <v>310</v>
       </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>LAWYER</t>
+        </is>
+      </c>
+      <c r="J257" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -9522,8 +10098,14 @@
       <c r="H258" t="n">
         <v>220</v>
       </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>M.906090.K</t>
+        </is>
+      </c>
+      <c r="J258" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -9554,8 +10136,14 @@
       <c r="H259" t="n">
         <v>241</v>
       </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>HR 26 BC 5514</t>
+        </is>
+      </c>
+      <c r="J259" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -9586,8 +10174,14 @@
       <c r="H260" t="n">
         <v>207</v>
       </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>EAB0001</t>
+        </is>
+      </c>
+      <c r="J260" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -9618,8 +10212,14 @@
       <c r="H261" t="n">
         <v>211</v>
       </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>YD63LB</t>
+        </is>
+      </c>
+      <c r="J261" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -9650,8 +10250,14 @@
       <c r="H262" t="n">
         <v>417</v>
       </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>4GET OIL</t>
+        </is>
+      </c>
+      <c r="J262" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -9682,8 +10288,14 @@
       <c r="H263" t="n">
         <v>185</v>
       </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>TN21AT8349</t>
+        </is>
+      </c>
+      <c r="J263" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -9746,8 +10358,14 @@
       <c r="H265" t="n">
         <v>246</v>
       </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>PUI8 BES</t>
+        </is>
+      </c>
+      <c r="J265" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -9778,8 +10396,14 @@
       <c r="H266" t="n">
         <v>246</v>
       </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>NBEYOND</t>
+        </is>
+      </c>
+      <c r="J266" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -9810,8 +10434,14 @@
       <c r="H267" t="n">
         <v>209</v>
       </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>6PIV728</t>
+        </is>
+      </c>
+      <c r="J267" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -9842,8 +10472,14 @@
       <c r="H268" t="n">
         <v>181</v>
       </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>J98257</t>
+        </is>
+      </c>
+      <c r="J268" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -9874,8 +10510,14 @@
       <c r="H269" t="n">
         <v>439</v>
       </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -9938,8 +10580,14 @@
       <c r="H271" t="n">
         <v>220</v>
       </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>HR 26 BC 5514</t>
+        </is>
+      </c>
+      <c r="J271" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -9970,8 +10618,14 @@
       <c r="H272" t="n">
         <v>160</v>
       </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>ALR 486</t>
+        </is>
+      </c>
+      <c r="J272" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -10002,8 +10656,14 @@
       <c r="H273" t="n">
         <v>259</v>
       </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>FALLYOU</t>
+        </is>
+      </c>
+      <c r="J273" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -10034,8 +10694,14 @@
       <c r="H274" t="n">
         <v>167</v>
       </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>MANISA</t>
+        </is>
+      </c>
+      <c r="J274" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -10066,8 +10732,14 @@
       <c r="H275" t="n">
         <v>266</v>
       </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>2662</t>
+        </is>
+      </c>
+      <c r="J275" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -10098,8 +10770,14 @@
       <c r="H276" t="n">
         <v>246</v>
       </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -10130,8 +10808,14 @@
       <c r="H277" t="n">
         <v>297</v>
       </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>700 V</t>
+        </is>
+      </c>
+      <c r="J277" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -10162,8 +10846,14 @@
       <c r="H278" t="n">
         <v>65</v>
       </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>TN99F2378</t>
+        </is>
+      </c>
+      <c r="J278" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -10194,8 +10884,14 @@
       <c r="H279" t="n">
         <v>159</v>
       </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>VI2LAF</t>
+        </is>
+      </c>
+      <c r="J279" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -10226,8 +10922,14 @@
       <c r="H280" t="n">
         <v>196</v>
       </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -10258,8 +10960,14 @@
       <c r="H281" t="n">
         <v>230</v>
       </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>DL8CX 4850</t>
+        </is>
+      </c>
+      <c r="J281" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -10290,8 +10998,14 @@
       <c r="H282" t="n">
         <v>155</v>
       </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>PGoMN112</t>
+        </is>
+      </c>
+      <c r="J282" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -10322,8 +11036,14 @@
       <c r="H283" t="n">
         <v>170</v>
       </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>IM4U 555</t>
+        </is>
+      </c>
+      <c r="J283" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -10354,8 +11074,14 @@
       <c r="H284" t="n">
         <v>176</v>
       </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>16M</t>
+        </is>
+      </c>
+      <c r="J284" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -10386,8 +11112,14 @@
       <c r="H285" t="n">
         <v>169</v>
       </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>OX65 AWD</t>
+        </is>
+      </c>
+      <c r="J285" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -10418,8 +11150,14 @@
       <c r="H286" t="n">
         <v>203</v>
       </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -10546,8 +11284,14 @@
       <c r="H290" t="n">
         <v>240</v>
       </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>HR 26 CB 1900</t>
+        </is>
+      </c>
+      <c r="J290" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -10578,8 +11322,14 @@
       <c r="H291" t="n">
         <v>159</v>
       </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>DZ17YXR</t>
+        </is>
+      </c>
+      <c r="J291" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -10610,8 +11360,14 @@
       <c r="H292" t="n">
         <v>191</v>
       </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>MH20EJO364</t>
+        </is>
+      </c>
+      <c r="J292" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -10642,8 +11398,14 @@
       <c r="H293" t="n">
         <v>162</v>
       </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>E8OLA</t>
+        </is>
+      </c>
+      <c r="J293" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -10674,8 +11436,14 @@
       <c r="H294" t="n">
         <v>198</v>
       </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>NOTACOP</t>
+        </is>
+      </c>
+      <c r="J294" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -10706,8 +11474,14 @@
       <c r="H295" t="n">
         <v>234</v>
       </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>DL8CX 4850</t>
+        </is>
+      </c>
+      <c r="J295" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -10738,8 +11512,14 @@
       <c r="H296" t="n">
         <v>154</v>
       </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -10770,8 +11550,14 @@
       <c r="H297" t="n">
         <v>205</v>
       </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -10802,8 +11588,14 @@
       <c r="H298" t="n">
         <v>169</v>
       </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>007PLATE.COM</t>
+        </is>
+      </c>
+      <c r="J298" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -10834,8 +11626,14 @@
       <c r="H299" t="n">
         <v>206</v>
       </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>DL7CN5617</t>
+        </is>
+      </c>
+      <c r="J299" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -10866,8 +11664,14 @@
       <c r="H300" t="n">
         <v>143</v>
       </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>VX54FVL</t>
+        </is>
+      </c>
+      <c r="J300" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -10898,8 +11702,14 @@
       <c r="H301" t="n">
         <v>192</v>
       </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>TS009TC268</t>
+        </is>
+      </c>
+      <c r="J301" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -10930,8 +11740,14 @@
       <c r="H302" t="n">
         <v>169</v>
       </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>MANISA</t>
+        </is>
+      </c>
+      <c r="J302" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -10962,8 +11778,14 @@
       <c r="H303" t="n">
         <v>209</v>
       </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>SKIP GAS</t>
+        </is>
+      </c>
+      <c r="J303" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -10994,8 +11816,14 @@
       <c r="H304" t="n">
         <v>217</v>
       </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>GOOGLE</t>
+        </is>
+      </c>
+      <c r="J304" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -11026,8 +11854,14 @@
       <c r="H305" t="n">
         <v>182</v>
       </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>OMG MOOV</t>
+        </is>
+      </c>
+      <c r="J305" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -11058,8 +11892,14 @@
       <c r="H306" t="n">
         <v>217</v>
       </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>KA 03 AB 3380</t>
+        </is>
+      </c>
+      <c r="J306" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -11090,8 +11930,14 @@
       <c r="H307" t="n">
         <v>135</v>
       </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -11122,8 +11968,14 @@
       <c r="H308" t="n">
         <v>204</v>
       </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>EAB001</t>
+        </is>
+      </c>
+      <c r="J308" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -11154,8 +12006,14 @@
       <c r="H309" t="n">
         <v>249</v>
       </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>PY56BXU</t>
+        </is>
+      </c>
+      <c r="J309" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -11186,8 +12044,14 @@
       <c r="H310" t="n">
         <v>208</v>
       </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -11218,8 +12082,14 @@
       <c r="H311" t="n">
         <v>188</v>
       </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -11250,8 +12120,14 @@
       <c r="H312" t="n">
         <v>129</v>
       </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>CB7R605</t>
+        </is>
+      </c>
+      <c r="J312" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -11282,8 +12158,14 @@
       <c r="H313" t="n">
         <v>195</v>
       </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -11346,8 +12228,14 @@
       <c r="H315" t="n">
         <v>221</v>
       </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>KA03 AB 3380</t>
+        </is>
+      </c>
+      <c r="J315" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -11378,8 +12266,14 @@
       <c r="H316" t="n">
         <v>222</v>
       </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -11410,8 +12304,14 @@
       <c r="H317" t="n">
         <v>190</v>
       </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>BKTP 665</t>
+        </is>
+      </c>
+      <c r="J317" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -11442,8 +12342,14 @@
       <c r="H318" t="n">
         <v>275</v>
       </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>BSMART2</t>
+        </is>
+      </c>
+      <c r="J318" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -11474,8 +12380,14 @@
       <c r="H319" t="n">
         <v>207</v>
       </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -11506,8 +12418,14 @@
       <c r="H320" t="n">
         <v>107</v>
       </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>PZ62 FDX</t>
+        </is>
+      </c>
+      <c r="J320" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -11570,8 +12488,14 @@
       <c r="H322" t="n">
         <v>240</v>
       </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -11602,8 +12526,14 @@
       <c r="H323" t="n">
         <v>229</v>
       </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>MIDLYPH</t>
+        </is>
+      </c>
+      <c r="J323" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -11634,8 +12564,14 @@
       <c r="H324" t="n">
         <v>200</v>
       </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>DX103</t>
+        </is>
+      </c>
+      <c r="J324" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -11666,8 +12602,14 @@
       <c r="H325" t="n">
         <v>178</v>
       </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>MPEACHW</t>
+        </is>
+      </c>
+      <c r="J325" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -11698,8 +12640,14 @@
       <c r="H326" t="n">
         <v>179</v>
       </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -11730,8 +12678,14 @@
       <c r="H327" t="n">
         <v>204</v>
       </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>WIW 123</t>
+        </is>
+      </c>
+      <c r="J327" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -11762,8 +12716,14 @@
       <c r="H328" t="n">
         <v>167</v>
       </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>DL3CBD5092</t>
+        </is>
+      </c>
+      <c r="J328" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -11794,8 +12754,14 @@
       <c r="H329" t="n">
         <v>226</v>
       </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>TN21BZ0768</t>
+        </is>
+      </c>
+      <c r="J329" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -11826,8 +12792,14 @@
       <c r="H330" t="n">
         <v>160</v>
       </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>MH 20 BQ 20</t>
+        </is>
+      </c>
+      <c r="J330" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -11858,8 +12830,14 @@
       <c r="H331" t="n">
         <v>222</v>
       </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>GOOGLE</t>
+        </is>
+      </c>
+      <c r="J331" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -11890,8 +12868,14 @@
       <c r="H332" t="n">
         <v>203</v>
       </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -11922,8 +12906,14 @@
       <c r="H333" t="n">
         <v>280</v>
       </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>15-LK-10898</t>
+        </is>
+      </c>
+      <c r="J333" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -11954,8 +12944,14 @@
       <c r="H334" t="n">
         <v>163</v>
       </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>FAST</t>
+        </is>
+      </c>
+      <c r="J334" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -11986,8 +12982,14 @@
       <c r="H335" t="n">
         <v>276</v>
       </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>CH01AN0001</t>
+        </is>
+      </c>
+      <c r="J335" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -12018,8 +13020,14 @@
       <c r="H336" t="n">
         <v>150</v>
       </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -12050,8 +13058,14 @@
       <c r="H337" t="n">
         <v>309</v>
       </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>HR26CE1485</t>
+        </is>
+      </c>
+      <c r="J337" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -12082,8 +13096,14 @@
       <c r="H338" t="n">
         <v>157</v>
       </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>TN21BC6225</t>
+        </is>
+      </c>
+      <c r="J338" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -12114,8 +13134,14 @@
       <c r="H339" t="n">
         <v>142</v>
       </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>S7JDw</t>
+        </is>
+      </c>
+      <c r="J339" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -12146,8 +13172,14 @@
       <c r="H340" t="n">
         <v>145</v>
       </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -12178,8 +13210,14 @@
       <c r="H341" t="n">
         <v>203</v>
       </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>B 2228HM</t>
+        </is>
+      </c>
+      <c r="J341" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -12210,8 +13248,14 @@
       <c r="H342" t="n">
         <v>161</v>
       </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -12242,8 +13286,14 @@
       <c r="H343" t="n">
         <v>137</v>
       </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -12274,8 +13324,14 @@
       <c r="H344" t="n">
         <v>245</v>
       </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>MH14GN9239</t>
+        </is>
+      </c>
+      <c r="J344" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -12306,8 +13362,14 @@
       <c r="H345" t="n">
         <v>231</v>
       </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>OMGBCKY</t>
+        </is>
+      </c>
+      <c r="J345" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -12338,8 +13400,14 @@
       <c r="H346" t="n">
         <v>126</v>
       </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>W718AX</t>
+        </is>
+      </c>
+      <c r="J346" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -12370,8 +13438,14 @@
       <c r="H347" t="n">
         <v>155</v>
       </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>20-89563</t>
+        </is>
+      </c>
+      <c r="J347" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -12402,8 +13476,14 @@
       <c r="H348" t="n">
         <v>240</v>
       </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>CRAIG</t>
+        </is>
+      </c>
+      <c r="J348" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -12434,8 +13514,14 @@
       <c r="H349" t="n">
         <v>228</v>
       </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -12466,8 +13552,14 @@
       <c r="H350" t="n">
         <v>230</v>
       </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>DX103</t>
+        </is>
+      </c>
+      <c r="J350" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -12498,8 +13590,14 @@
       <c r="H351" t="n">
         <v>191</v>
       </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>EVO9FTW</t>
+        </is>
+      </c>
+      <c r="J351" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -12530,8 +13628,14 @@
       <c r="H352" t="n">
         <v>368</v>
       </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>AB44887</t>
+        </is>
+      </c>
+      <c r="J352" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -12562,8 +13666,14 @@
       <c r="H353" t="n">
         <v>225</v>
       </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>HR26AZ5927</t>
+        </is>
+      </c>
+      <c r="J353" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -12594,8 +13704,14 @@
       <c r="H354" t="n">
         <v>158</v>
       </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -12626,8 +13742,14 @@
       <c r="H355" t="n">
         <v>370</v>
       </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>AB44887</t>
+        </is>
+      </c>
+      <c r="J355" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -12658,8 +13780,14 @@
       <c r="H356" t="n">
         <v>213</v>
       </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>MH15BD8877</t>
+        </is>
+      </c>
+      <c r="J356" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -12690,8 +13818,14 @@
       <c r="H357" t="n">
         <v>136</v>
       </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -12754,8 +13888,14 @@
       <c r="H359" t="n">
         <v>190</v>
       </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>BKWL 324</t>
+        </is>
+      </c>
+      <c r="J359" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -12786,8 +13926,14 @@
       <c r="H360" t="n">
         <v>209</v>
       </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>DZV G49</t>
+        </is>
+      </c>
+      <c r="J360" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -12818,8 +13964,14 @@
       <c r="H361" t="n">
         <v>208</v>
       </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>M.771276</t>
+        </is>
+      </c>
+      <c r="J361" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -12850,8 +14002,14 @@
       <c r="H362" t="n">
         <v>190</v>
       </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>MH 12 MR OG13</t>
+        </is>
+      </c>
+      <c r="J362" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -12882,8 +14040,14 @@
       <c r="H363" t="n">
         <v>205</v>
       </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -12914,8 +14078,14 @@
       <c r="H364" t="n">
         <v>289</v>
       </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>REAP3R</t>
+        </is>
+      </c>
+      <c r="J364" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -12946,8 +14116,14 @@
       <c r="H365" t="n">
         <v>212</v>
       </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>9214</t>
+        </is>
+      </c>
+      <c r="J365" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -12978,8 +14154,14 @@
       <c r="H366" t="n">
         <v>222</v>
       </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>MMN306</t>
+        </is>
+      </c>
+      <c r="J366" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -13010,8 +14192,14 @@
       <c r="H367" t="n">
         <v>161</v>
       </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>OX65AWD</t>
+        </is>
+      </c>
+      <c r="J367" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -13042,8 +14230,14 @@
       <c r="H368" t="n">
         <v>253</v>
       </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>PUI8 BES</t>
+        </is>
+      </c>
+      <c r="J368" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -13074,8 +14268,14 @@
       <c r="H369" t="n">
         <v>211</v>
       </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>M 1 7 1 0 8 FV1232</t>
+        </is>
+      </c>
+      <c r="J369" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -13106,8 +14306,14 @@
       <c r="H370" t="n">
         <v>217</v>
       </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -13138,8 +14344,14 @@
       <c r="H371" t="n">
         <v>240</v>
       </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>HR 26 BC 5514</t>
+        </is>
+      </c>
+      <c r="J371" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -13170,8 +14382,14 @@
       <c r="H372" t="n">
         <v>181</v>
       </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>SGQ511U</t>
+        </is>
+      </c>
+      <c r="J372" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -13202,8 +14420,14 @@
       <c r="H373" t="n">
         <v>209</v>
       </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -13266,8 +14490,14 @@
       <c r="H375" t="n">
         <v>244</v>
       </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="J375" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -13298,8 +14528,14 @@
       <c r="H376" t="n">
         <v>232</v>
       </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -13330,8 +14566,14 @@
       <c r="H377" t="n">
         <v>226</v>
       </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>1268</t>
+        </is>
+      </c>
+      <c r="J377" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -13362,8 +14604,14 @@
       <c r="H378" t="n">
         <v>202</v>
       </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -13394,8 +14642,14 @@
       <c r="H379" t="n">
         <v>228</v>
       </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -13426,8 +14680,14 @@
       <c r="H380" t="n">
         <v>168</v>
       </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>RK:977AF</t>
+        </is>
+      </c>
+      <c r="J380" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -13458,8 +14718,14 @@
       <c r="H381" t="n">
         <v>206</v>
       </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>YNTZDBC</t>
+        </is>
+      </c>
+      <c r="J381" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -13490,8 +14756,14 @@
       <c r="H382" t="n">
         <v>212</v>
       </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>EWW POOP</t>
+        </is>
+      </c>
+      <c r="J382" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -13522,8 +14794,14 @@
       <c r="H383" t="n">
         <v>197</v>
       </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>VIPER</t>
+        </is>
+      </c>
+      <c r="J383" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -13554,8 +14832,14 @@
       <c r="H384" t="n">
         <v>202</v>
       </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>LR33 TEE</t>
+        </is>
+      </c>
+      <c r="J384" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -13586,8 +14870,14 @@
       <c r="H385" t="n">
         <v>162</v>
       </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>85-44</t>
+        </is>
+      </c>
+      <c r="J385" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -13650,8 +14940,14 @@
       <c r="H387" t="n">
         <v>228</v>
       </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J387" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -13682,8 +14978,14 @@
       <c r="H388" t="n">
         <v>192</v>
       </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>MH 12 NE 8922</t>
+        </is>
+      </c>
+      <c r="J388" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -13714,8 +15016,14 @@
       <c r="H389" t="n">
         <v>221</v>
       </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>172 TMJ</t>
+        </is>
+      </c>
+      <c r="J389" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -13746,8 +15054,14 @@
       <c r="H390" t="n">
         <v>196</v>
       </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>BAD 231</t>
+        </is>
+      </c>
+      <c r="J390" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -13778,8 +15092,14 @@
       <c r="H391" t="n">
         <v>155</v>
       </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>OX65 AWD</t>
+        </is>
+      </c>
+      <c r="J391" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -13810,8 +15130,14 @@
       <c r="H392" t="n">
         <v>242</v>
       </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>MH14GN 9239</t>
+        </is>
+      </c>
+      <c r="J392" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -13842,8 +15168,14 @@
       <c r="H393" t="n">
         <v>159</v>
       </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>BYHM.136</t>
+        </is>
+      </c>
+      <c r="J393" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -13874,8 +15206,14 @@
       <c r="H394" t="n">
         <v>211</v>
       </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>SKIP GAS</t>
+        </is>
+      </c>
+      <c r="J394" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -13906,8 +15244,14 @@
       <c r="H395" t="n">
         <v>183</v>
       </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -13938,8 +15282,14 @@
       <c r="H396" t="n">
         <v>182</v>
       </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>MH20EE7596</t>
+        </is>
+      </c>
+      <c r="J396" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -13970,8 +15320,14 @@
       <c r="H397" t="n">
         <v>183</v>
       </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>P3RV P</t>
+        </is>
+      </c>
+      <c r="J397" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -14002,8 +15358,14 @@
       <c r="H398" t="n">
         <v>242</v>
       </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>KA.03.MG.2784</t>
+        </is>
+      </c>
+      <c r="J398" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -14034,8 +15396,14 @@
       <c r="H399" t="n">
         <v>132</v>
       </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>G526JHD</t>
+        </is>
+      </c>
+      <c r="J399" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -14066,8 +15434,14 @@
       <c r="H400" t="n">
         <v>238</v>
       </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>CRAIG</t>
+        </is>
+      </c>
+      <c r="J400" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -14098,8 +15472,14 @@
       <c r="H401" t="n">
         <v>228</v>
       </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>01CC1A0001</t>
+        </is>
+      </c>
+      <c r="J401" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -14130,8 +15510,14 @@
       <c r="H402" t="n">
         <v>157</v>
       </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>DZ17 YXR</t>
+        </is>
+      </c>
+      <c r="J402" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -14162,8 +15548,14 @@
       <c r="H403" t="n">
         <v>195</v>
       </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>KA1SER</t>
+        </is>
+      </c>
+      <c r="J403" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -14194,8 +15586,14 @@
       <c r="H404" t="n">
         <v>161</v>
       </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>MH20BQ20</t>
+        </is>
+      </c>
+      <c r="J404" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -14226,8 +15624,14 @@
       <c r="H405" t="n">
         <v>197</v>
       </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>BCG 986</t>
+        </is>
+      </c>
+      <c r="J405" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -14258,8 +15662,14 @@
       <c r="H406" t="n">
         <v>147</v>
       </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>KLBOSS</t>
+        </is>
+      </c>
+      <c r="J406" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -14290,8 +15700,14 @@
       <c r="H407" t="n">
         <v>284</v>
       </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>DL49 AK49</t>
+        </is>
+      </c>
+      <c r="J407" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -14322,8 +15738,14 @@
       <c r="H408" t="n">
         <v>271</v>
       </c>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>DL2C AG 0786</t>
+        </is>
+      </c>
+      <c r="J408" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -14354,8 +15776,14 @@
       <c r="H409" t="n">
         <v>175</v>
       </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>IMGROOT</t>
+        </is>
+      </c>
+      <c r="J409" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -14386,8 +15814,14 @@
       <c r="H410" t="n">
         <v>248</v>
       </c>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>MH14GN9239</t>
+        </is>
+      </c>
+      <c r="J410" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -14418,8 +15852,14 @@
       <c r="H411" t="n">
         <v>161</v>
       </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J411" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -14450,8 +15890,14 @@
       <c r="H412" t="n">
         <v>155</v>
       </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>ALR486</t>
+        </is>
+      </c>
+      <c r="J412" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -14482,8 +15928,14 @@
       <c r="H413" t="n">
         <v>190</v>
       </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J413" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -14514,8 +15966,14 @@
       <c r="H414" t="n">
         <v>240</v>
       </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J414" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -14546,8 +16004,14 @@
       <c r="H415" t="n">
         <v>262</v>
       </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>PUI8BES</t>
+        </is>
+      </c>
+      <c r="J415" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -14578,8 +16042,14 @@
       <c r="H416" t="n">
         <v>162</v>
       </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>YES BOSS</t>
+        </is>
+      </c>
+      <c r="J416" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -14610,8 +16080,14 @@
       <c r="H417" t="n">
         <v>210</v>
       </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>MH15BD8877</t>
+        </is>
+      </c>
+      <c r="J417" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -14642,8 +16118,14 @@
       <c r="H418" t="n">
         <v>213</v>
       </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>CHIOOSE</t>
+        </is>
+      </c>
+      <c r="J418" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -14674,8 +16156,14 @@
       <c r="H419" t="n">
         <v>118</v>
       </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>LTM378</t>
+        </is>
+      </c>
+      <c r="J419" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -14706,8 +16194,14 @@
       <c r="H420" t="n">
         <v>208</v>
       </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>9214</t>
+        </is>
+      </c>
+      <c r="J420" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -14738,8 +16232,14 @@
       <c r="H421" t="n">
         <v>146</v>
       </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>KLBOSS</t>
+        </is>
+      </c>
+      <c r="J421" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -14770,8 +16270,14 @@
       <c r="H422" t="n">
         <v>195</v>
       </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="I422" t="inlineStr">
+        <is>
+          <t>BKWL324</t>
+        </is>
+      </c>
+      <c r="J422" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -14802,8 +16308,14 @@
       <c r="H423" t="n">
         <v>187</v>
       </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>MH01DB0001</t>
+        </is>
+      </c>
+      <c r="J423" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -14834,8 +16346,14 @@
       <c r="H424" t="n">
         <v>175</v>
       </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -14866,8 +16384,14 @@
       <c r="H425" t="n">
         <v>239</v>
       </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>802.11NVIRGINIA</t>
+        </is>
+      </c>
+      <c r="J425" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -14898,8 +16422,14 @@
       <c r="H426" t="n">
         <v>159</v>
       </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="I426" t="inlineStr">
+        <is>
+          <t>OS 802-HN</t>
+        </is>
+      </c>
+      <c r="J426" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -14930,8 +16460,14 @@
       <c r="H427" t="n">
         <v>231</v>
       </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="I427" t="inlineStr">
+        <is>
+          <t>MMN306</t>
+        </is>
+      </c>
+      <c r="J427" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -14962,8 +16498,14 @@
       <c r="H428" t="n">
         <v>159</v>
       </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="I428" t="inlineStr">
+        <is>
+          <t>WATT UP</t>
+        </is>
+      </c>
+      <c r="J428" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -14994,8 +16536,14 @@
       <c r="H429" t="n">
         <v>226</v>
       </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="I429" t="inlineStr">
+        <is>
+          <t>BIG TEAM</t>
+        </is>
+      </c>
+      <c r="J429" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -15026,8 +16574,14 @@
       <c r="H430" t="n">
         <v>220</v>
       </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>TAXI</t>
+        </is>
+      </c>
+      <c r="J430" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -15058,8 +16612,14 @@
       <c r="H431" t="n">
         <v>260</v>
       </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="I431" t="inlineStr">
+        <is>
+          <t>OR INNIE</t>
+        </is>
+      </c>
+      <c r="J431" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -15090,8 +16650,14 @@
       <c r="H432" t="n">
         <v>202</v>
       </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="I432" t="inlineStr">
+        <is>
+          <t>9214</t>
+        </is>
+      </c>
+      <c r="J432" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -15122,8 +16688,14 @@
       <c r="H433" t="n">
         <v>248</v>
       </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="I433" t="inlineStr">
+        <is>
+          <t>MH14BN7077</t>
+        </is>
+      </c>
+      <c r="J433" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -15154,8 +16726,14 @@
       <c r="H434" t="n">
         <v>171</v>
       </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="I434" t="inlineStr">
+        <is>
+          <t>BJR216</t>
+        </is>
+      </c>
+      <c r="J434" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -15186,8 +16764,14 @@
       <c r="H435" t="n">
         <v>175</v>
       </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="I435" t="inlineStr">
+        <is>
+          <t>KWID</t>
+        </is>
+      </c>
+      <c r="J435" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -15218,8 +16802,14 @@
       <c r="H436" t="n">
         <v>154</v>
       </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>YSX213</t>
+        </is>
+      </c>
+      <c r="J436" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -15250,8 +16840,14 @@
       <c r="H437" t="n">
         <v>133</v>
       </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J437" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -15282,8 +16878,14 @@
       <c r="H438" t="n">
         <v>152</v>
       </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="I438" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -15346,8 +16948,14 @@
       <c r="H440" t="n">
         <v>208</v>
       </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="I440" t="inlineStr">
+        <is>
+          <t>DL7CN5617</t>
+        </is>
+      </c>
+      <c r="J440" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -15378,8 +16986,14 @@
       <c r="H441" t="n">
         <v>69</v>
       </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="I441" t="inlineStr">
+        <is>
+          <t>TN99F2378</t>
+        </is>
+      </c>
+      <c r="J441" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -15410,8 +17024,14 @@
       <c r="H442" t="n">
         <v>153</v>
       </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="I442" t="inlineStr">
+        <is>
+          <t>CZ17KOD</t>
+        </is>
+      </c>
+      <c r="J442" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -15442,8 +17062,14 @@
       <c r="H443" t="n">
         <v>201</v>
       </c>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="I443" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J443" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -15474,8 +17100,14 @@
       <c r="H444" t="n">
         <v>233</v>
       </c>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="I444" t="inlineStr">
+        <is>
+          <t>MH-31EARSS</t>
+        </is>
+      </c>
+      <c r="J444" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -15506,8 +17138,14 @@
       <c r="H445" t="n">
         <v>178</v>
       </c>
-      <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="I445" t="inlineStr">
+        <is>
+          <t>HR26CU6799</t>
+        </is>
+      </c>
+      <c r="J445" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -15538,8 +17176,14 @@
       <c r="H446" t="n">
         <v>239</v>
       </c>
-      <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="I446" t="inlineStr">
+        <is>
+          <t>KL54A2670</t>
+        </is>
+      </c>
+      <c r="J446" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -15570,8 +17214,14 @@
       <c r="H447" t="n">
         <v>422</v>
       </c>
-      <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="I447" t="inlineStr">
+        <is>
+          <t>4GETOIL</t>
+        </is>
+      </c>
+      <c r="J447" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -15602,8 +17252,14 @@
       <c r="H448" t="n">
         <v>134</v>
       </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="I448" t="inlineStr">
+        <is>
+          <t>G526 JHD</t>
+        </is>
+      </c>
+      <c r="J448" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -15634,8 +17290,14 @@
       <c r="H449" t="n">
         <v>186</v>
       </c>
-      <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="I449" t="inlineStr">
+        <is>
+          <t>BAD 231</t>
+        </is>
+      </c>
+      <c r="J449" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -15666,8 +17328,14 @@
       <c r="H450" t="n">
         <v>125</v>
       </c>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="I450" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -15698,8 +17366,14 @@
       <c r="H451" t="n">
         <v>77</v>
       </c>
-      <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="I451" t="inlineStr">
+        <is>
+          <t>UP16TC1368</t>
+        </is>
+      </c>
+      <c r="J451" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -15730,8 +17404,14 @@
       <c r="H452" t="n">
         <v>341</v>
       </c>
-      <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="I452" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="J452" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -15762,8 +17442,14 @@
       <c r="H453" t="n">
         <v>220</v>
       </c>
-      <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>HR26BC5514</t>
+        </is>
+      </c>
+      <c r="J453" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -15794,8 +17480,14 @@
       <c r="H454" t="n">
         <v>235</v>
       </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="I454" t="inlineStr">
+        <is>
+          <t>VU63GTY</t>
+        </is>
+      </c>
+      <c r="J454" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -15858,8 +17550,14 @@
       <c r="H456" t="n">
         <v>204</v>
       </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="I456" t="inlineStr">
+        <is>
+          <t>MH14DX9937</t>
+        </is>
+      </c>
+      <c r="J456" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -15890,8 +17588,14 @@
       <c r="H457" t="n">
         <v>220</v>
       </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+      <c r="I457" t="inlineStr">
+        <is>
+          <t>TSLA S1</t>
+        </is>
+      </c>
+      <c r="J457" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -15954,8 +17658,14 @@
       <c r="H459" t="n">
         <v>171</v>
       </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J459" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -15986,8 +17696,14 @@
       <c r="H460" t="n">
         <v>221</v>
       </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J460" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -16050,8 +17766,14 @@
       <c r="H462" t="n">
         <v>247</v>
       </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>MHO1AV8866</t>
+        </is>
+      </c>
+      <c r="J462" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -16082,8 +17804,14 @@
       <c r="H463" t="n">
         <v>225</v>
       </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J463" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -16114,8 +17842,14 @@
       <c r="H464" t="n">
         <v>189</v>
       </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+      <c r="I464" t="inlineStr">
+        <is>
+          <t>304O61C</t>
+        </is>
+      </c>
+      <c r="J464" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -16146,8 +17880,14 @@
       <c r="H465" t="n">
         <v>271</v>
       </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>AoDoooo8</t>
+        </is>
+      </c>
+      <c r="J465" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -16178,8 +17918,14 @@
       <c r="H466" t="n">
         <v>132</v>
       </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+      <c r="I466" t="inlineStr">
+        <is>
+          <t>[NO TEXT]</t>
+        </is>
+      </c>
+      <c r="J466" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -16210,8 +17956,14 @@
       <c r="H467" t="n">
         <v>248</v>
       </c>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>NBEYOND</t>
+        </is>
+      </c>
+      <c r="J467" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -16242,8 +17994,14 @@
       <c r="H468" t="n">
         <v>263</v>
       </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>AoDoooo8</t>
+        </is>
+      </c>
+      <c r="J468" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -16274,8 +18032,14 @@
       <c r="H469" t="n">
         <v>160</v>
       </c>
-      <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="I469" t="inlineStr">
+        <is>
+          <t>PG0MN112</t>
+        </is>
+      </c>
+      <c r="J469" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -16306,8 +18070,14 @@
       <c r="H470" t="n">
         <v>191</v>
       </c>
-      <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="I470" t="inlineStr">
+        <is>
+          <t>KAO5MG1909</t>
+        </is>
+      </c>
+      <c r="J470" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -16338,8 +18108,14 @@
       <c r="H471" t="n">
         <v>259</v>
       </c>
-      <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="I471" t="inlineStr">
+        <is>
+          <t>YWORRY</t>
+        </is>
+      </c>
+      <c r="J471" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -16370,8 +18146,14 @@
       <c r="H472" t="n">
         <v>271</v>
       </c>
-      <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="I472" t="inlineStr">
+        <is>
+          <t>KA09MA2662</t>
+        </is>
+      </c>
+      <c r="J472" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
